--- a/AE Sakib/Instructions.xlsx
+++ b/AE Sakib/Instructions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Nane:</t>
   </si>
@@ -52,16 +52,10 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>29/1/2023</t>
-  </si>
-  <si>
     <t>29/1/2024</t>
   </si>
   <si>
     <t>29/1/2025</t>
-  </si>
-  <si>
-    <t>Go to Karwan Bazar By Hrad paper,Anit Cutter,Glue,Scotch Tape.We Shall build Counter Fort Retaining Wall</t>
   </si>
   <si>
     <t>Watch Video Lecture on Counter Fort.Lecture will be found in:"Xen Jakaria\Latteral Earth Pressure\Videos" in Github</t>
@@ -75,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,14 +137,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,55 +488,38 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D4" s="7">
-        <v>0.41666666666666702</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="7">
-        <v>0.5</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
-      <c r="D7" s="9"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
